--- a/Interview XLSX/Hakim 1 Interview.xlsx
+++ b/Interview XLSX/Hakim 1 Interview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>TIME</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -447,6 +447,11 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>TRANSCRIPTION (SESOTHO)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>filepath</t>
         </is>
       </c>
     </row>
@@ -462,6 +467,11 @@
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +485,11 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +503,11 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +521,11 @@
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +539,11 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +557,11 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,6 +575,11 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -553,6 +593,11 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -566,6 +611,11 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -579,6 +629,11 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -592,6 +647,11 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -605,6 +665,11 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -618,6 +683,11 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -631,6 +701,11 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -644,6 +719,11 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -657,6 +737,11 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -670,6 +755,11 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -683,6 +773,11 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -696,6 +791,11 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -709,6 +809,11 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -722,6 +827,11 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -735,6 +845,11 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -748,6 +863,11 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -761,6 +881,11 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -774,6 +899,11 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -787,6 +917,11 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -800,6 +935,11 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -813,6 +953,11 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -826,6 +971,11 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -839,6 +989,11 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -852,6 +1007,11 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -865,6 +1025,11 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -878,6 +1043,11 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -891,6 +1061,11 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -904,6 +1079,11 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -917,6 +1097,11 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -930,6 +1115,11 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -943,6 +1133,11 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -956,6 +1151,11 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -969,6 +1169,11 @@
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -982,6 +1187,11 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -995,6 +1205,11 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1008,6 +1223,11 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1021,6 +1241,11 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1034,6 +1259,11 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1047,6 +1277,11 @@
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1060,6 +1295,11 @@
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1073,6 +1313,11 @@
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1086,6 +1331,11 @@
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1099,6 +1349,11 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1112,6 +1367,11 @@
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1125,6 +1385,11 @@
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1138,6 +1403,11 @@
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1151,6 +1421,11 @@
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1164,6 +1439,11 @@
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1177,6 +1457,11 @@
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1190,6 +1475,11 @@
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1203,6 +1493,11 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1216,6 +1511,11 @@
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1229,6 +1529,11 @@
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1242,6 +1547,11 @@
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1255,6 +1565,11 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1268,6 +1583,11 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1281,6 +1601,11 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1294,6 +1619,11 @@
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1307,6 +1637,11 @@
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1320,6 +1655,11 @@
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1333,6 +1673,11 @@
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1346,6 +1691,11 @@
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1359,6 +1709,11 @@
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1372,6 +1727,11 @@
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1385,6 +1745,11 @@
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1398,6 +1763,11 @@
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1411,6 +1781,11 @@
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1424,6 +1799,11 @@
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1437,6 +1817,11 @@
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1450,6 +1835,11 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1463,6 +1853,11 @@
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1476,6 +1871,11 @@
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1489,6 +1889,11 @@
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1502,6 +1907,11 @@
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1515,6 +1925,11 @@
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1528,6 +1943,11 @@
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1541,6 +1961,11 @@
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1554,6 +1979,11 @@
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1567,6 +1997,11 @@
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1580,6 +2015,11 @@
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1593,6 +2033,11 @@
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1606,6 +2051,11 @@
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1619,6 +2069,11 @@
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1632,6 +2087,11 @@
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1645,6 +2105,11 @@
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1658,6 +2123,11 @@
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1671,6 +2141,11 @@
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1684,6 +2159,11 @@
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1697,6 +2177,11 @@
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1710,6 +2195,11 @@
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1723,6 +2213,11 @@
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1736,6 +2231,11 @@
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1749,6 +2249,11 @@
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1762,6 +2267,11 @@
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1775,6 +2285,11 @@
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1788,6 +2303,11 @@
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1801,6 +2321,11 @@
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1814,6 +2339,11 @@
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1827,6 +2357,11 @@
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1840,6 +2375,11 @@
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1853,6 +2393,11 @@
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1866,6 +2411,11 @@
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1879,6 +2429,11 @@
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1892,6 +2447,11 @@
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1905,6 +2465,11 @@
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1918,6 +2483,11 @@
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1931,6 +2501,11 @@
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1944,6 +2519,11 @@
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1957,6 +2537,11 @@
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1970,6 +2555,11 @@
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1983,6 +2573,11 @@
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1996,6 +2591,11 @@
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2009,6 +2609,11 @@
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2022,6 +2627,11 @@
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2035,6 +2645,11 @@
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2048,6 +2663,11 @@
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2061,6 +2681,11 @@
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2074,6 +2699,11 @@
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2087,6 +2717,11 @@
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2100,6 +2735,11 @@
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2113,6 +2753,11 @@
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2126,6 +2771,11 @@
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2139,6 +2789,11 @@
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2152,6 +2807,11 @@
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2165,6 +2825,11 @@
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2178,6 +2843,11 @@
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2191,6 +2861,11 @@
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2204,6 +2879,11 @@
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2217,6 +2897,11 @@
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2230,6 +2915,11 @@
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2243,6 +2933,11 @@
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2256,6 +2951,11 @@
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2269,6 +2969,11 @@
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2282,6 +2987,11 @@
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2295,6 +3005,11 @@
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2308,6 +3023,11 @@
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2321,6 +3041,11 @@
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2334,6 +3059,11 @@
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2347,6 +3077,11 @@
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2360,6 +3095,11 @@
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>../Interview TXT\Hakim 1 Interview.txt</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
